--- a/data/trans_media/Q15_1-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q15_1-Provincia-trans_media.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,39</t>
+          <t>1,05; 1,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,19 +734,19 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>1,0; 1,28</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 1,36</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>1,0; 1,27</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 1,38</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,27</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,41</t>
+          <t>1,04; 1,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,38</t>
+          <t>1,07; 1,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,26</t>
+          <t>1,04; 1,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,28</t>
+          <t>1,06; 1,27</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,71</t>
+          <t>1,0; 2,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,24</t>
+          <t>1,01; 1,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,38</t>
+          <t>1,06; 3,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,47</t>
+          <t>1,0; 1,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,56</t>
+          <t>1,14; 1,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,39</t>
+          <t>1,38; 2,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,9</t>
+          <t>1,05; 1,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,32</t>
+          <t>1,0; 1,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,5</t>
+          <t>1,4; 2,52</t>
         </is>
       </c>
     </row>
@@ -1009,57 +1009,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,44</t>
+          <t>1,1; 2,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,65</t>
+          <t>1,04; 1,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,7</t>
+          <t>1,14; 1,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,34</t>
+          <t>1,0; 1,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,47</t>
+          <t>1,24; 2,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,05</t>
+          <t>1,18; 2,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,93</t>
+          <t>1,18; 1,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,14</t>
+          <t>1,0; 1,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,01</t>
+          <t>1,23; 2,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,7</t>
+          <t>1,16; 1,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,67</t>
+          <t>1,21; 1,71</t>
         </is>
       </c>
     </row>
@@ -1144,37 +1144,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,23</t>
+          <t>1,05; 1,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,37</t>
+          <t>1,11; 1,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,26</t>
+          <t>1,02; 1,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,67</t>
+          <t>1,0; 2,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,26</t>
+          <t>1,0; 1,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,53</t>
+          <t>1,12; 1,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,65</t>
+          <t>1,04; 1,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,18</t>
+          <t>1,03; 1,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,35</t>
+          <t>1,05; 1,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,16</t>
+          <t>1,02; 2,15</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,38</t>
+          <t>1,04; 1,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,01</t>
+          <t>1,0; 4,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,68</t>
+          <t>1,05; 1,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,54</t>
+          <t>1,06; 2,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,53</t>
+          <t>1,07; 1,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,3</t>
+          <t>1,0; 1,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,21</t>
+          <t>1,0; 1,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,48</t>
+          <t>1,06; 1,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,21</t>
+          <t>1,03; 1,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,16</t>
+          <t>1,0; 1,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,23</t>
+          <t>1,34; 2,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,18</t>
+          <t>1,3; 2,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,12</t>
+          <t>1,01; 1,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,79</t>
+          <t>1,24; 1,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,66</t>
+          <t>1,18; 1,63</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,24</t>
+          <t>1,02; 1,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,47</t>
+          <t>1,03; 1,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,58</t>
+          <t>1,05; 1,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,12</t>
+          <t>1,0; 1,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,27 +1599,27 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 1,92</t>
+          <t>1,32; 1,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,18</t>
+          <t>1,03; 1,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,27</t>
+          <t>1,03; 1,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,16</t>
+          <t>1,0; 1,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,61</t>
+          <t>1,24; 1,63</t>
         </is>
       </c>
     </row>
@@ -1714,22 +1714,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,33</t>
+          <t>1,04; 1,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,21</t>
+          <t>1,0; 1,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,38</t>
+          <t>1,08; 1,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,46</t>
+          <t>1,1; 2,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,27 +1739,27 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,08</t>
+          <t>1,0; 1,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,24</t>
+          <t>1,07; 1,23</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,8</t>
+          <t>1,05; 1,99</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,2</t>
+          <t>1,03; 1,21</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,11</t>
+          <t>1,0; 1,09</t>
         </is>
       </c>
     </row>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,21</t>
+          <t>1,08; 1,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,32</t>
+          <t>1,11; 1,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1859,47 +1859,47 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,53</t>
+          <t>1,14; 1,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,32</t>
+          <t>1,07; 1,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,46</t>
+          <t>1,17; 1,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,38</t>
+          <t>1,15; 1,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,55</t>
+          <t>1,29; 1,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,22</t>
+          <t>1,09; 1,21</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,32</t>
+          <t>1,16; 1,33</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,24</t>
+          <t>1,12; 1,25</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,47</t>
+          <t>1,24; 1,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q15_1-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q15_1-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,28</t>
+          <t>1,0; 1,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,27</t>
+          <t>1,0; 1,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,37</t>
+          <t>1,04; 1,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,26</t>
+          <t>1,04; 1,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,52</t>
+          <t>1,0; 2,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,23</t>
+          <t>1,03; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,49</t>
+          <t>1,0; 1,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,58</t>
+          <t>1,14; 1,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,88</t>
+          <t>1,05; 2,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,36</t>
+          <t>1,1; 1,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,38</t>
+          <t>1,0; 1,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,57 +1004,57 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,0; 1,13</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 2,47</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 1,8</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 1,66</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1,33</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 2,61</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 2,07</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 1,9</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1,0; 1,16</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 2,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 1,67</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 1,66</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,33</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 2,52</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 2,0</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 1,9</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,15</t>
-        </is>
-      </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,0</t>
+          <t>1,2; 1,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,66</t>
+          <t>1,17; 1,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,28</t>
+          <t>1,05; 1,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,38</t>
+          <t>1,11; 1,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,29</t>
+          <t>1,02; 1,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,52</t>
+          <t>1,12; 1,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,61</t>
+          <t>1,04; 1,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,37</t>
+          <t>1,14; 1,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,35</t>
+          <t>1,05; 1,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,69</t>
+          <t>1,0; 1,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,0</t>
+          <t>1,0; 3,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,66</t>
+          <t>1,05; 1,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,52</t>
+          <t>1,06; 1,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,26</t>
+          <t>1,0; 1,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,41</t>
+          <t>1,05; 1,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,18</t>
+          <t>1,0; 1,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,2</t>
+          <t>1,34; 2,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,81</t>
+          <t>1,24; 1,77</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,23</t>
+          <t>1,02; 1,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,44</t>
+          <t>1,03; 1,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,26</t>
+          <t>1,0; 1,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,14</t>
+          <t>1,0; 1,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,31</t>
+          <t>1,0; 1,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,19</t>
+          <t>1,03; 1,18</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,25</t>
+          <t>1,03; 1,26</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,17</t>
+          <t>1,0; 1,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,34</t>
+          <t>1,05; 1,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,12 +1724,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,39</t>
+          <t>1,07; 1,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,5</t>
+          <t>1,09; 2,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,23</t>
+          <t>1,06; 1,24</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,99</t>
+          <t>1,05; 1,84</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,21</t>
+          <t>1,02; 1,2</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,31</t>
+          <t>1,11; 1,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,34</t>
+          <t>1,07; 1,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,41</t>
+          <t>1,17; 1,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,39</t>
+          <t>1,15; 1,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,12 +1884,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,21</t>
+          <t>1,08; 1,21</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,33</t>
+          <t>1,16; 1,3</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
